--- a/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>93497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76592</v>
+        <v>75836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113911</v>
+        <v>113385</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2577675139818896</v>
+        <v>0.2577675139818895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2111599606117329</v>
+        <v>0.2090754274319051</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3140460899133682</v>
+        <v>0.3125964945931876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -762,19 +762,19 @@
         <v>78918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65819</v>
+        <v>66371</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92747</v>
+        <v>92050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2876502258343446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2399041631841417</v>
+        <v>0.2419153891352483</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3380540233700319</v>
+        <v>0.335514928651</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -783,19 +783,19 @@
         <v>172416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150690</v>
+        <v>151413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195341</v>
+        <v>198085</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2706364523735837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2365347765801873</v>
+        <v>0.2376696605919881</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3066211462642913</v>
+        <v>0.3109282922051268</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>64347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50503</v>
+        <v>50245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81407</v>
+        <v>82124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1774010267591117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1392339224553251</v>
+        <v>0.1385221403550742</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2244351725686323</v>
+        <v>0.2264102643567015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -833,19 +833,19 @@
         <v>54029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43883</v>
+        <v>44231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65640</v>
+        <v>65934</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1969317147062032</v>
+        <v>0.1969317147062031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1599497800777145</v>
+        <v>0.161219529871071</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2392521911712747</v>
+        <v>0.2403234157302735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -854,19 +854,19 @@
         <v>118376</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101382</v>
+        <v>100691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140083</v>
+        <v>138314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1858118838854496</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1591364115573957</v>
+        <v>0.1580522871980149</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2198842067534096</v>
+        <v>0.2171076429875384</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>48013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35216</v>
+        <v>36740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61638</v>
+        <v>61789</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1323694436386701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09708969315293242</v>
+        <v>0.1012892783969421</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1699333445017198</v>
+        <v>0.1703499693397744</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -904,19 +904,19 @@
         <v>35325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26524</v>
+        <v>26519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48158</v>
+        <v>47570</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1287582204961168</v>
+        <v>0.1287582204961167</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09667621718204834</v>
+        <v>0.09666083950825537</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1755304078490704</v>
+        <v>0.1733877225003169</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -925,19 +925,19 @@
         <v>83339</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67934</v>
+        <v>68435</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99991</v>
+        <v>100661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1308142766120081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1066347566584784</v>
+        <v>0.1074209991393467</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1569526572329886</v>
+        <v>0.1580046531189003</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>60538</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45711</v>
+        <v>46796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79473</v>
+        <v>78031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1668988610045599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1260235200811509</v>
+        <v>0.1290144824867018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2191037514562575</v>
+        <v>0.2151284880939229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -975,19 +975,19 @@
         <v>43908</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33861</v>
+        <v>34421</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55373</v>
+        <v>55106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1600401699644412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1234208693192819</v>
+        <v>0.1254625606783052</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2018311479000049</v>
+        <v>0.2008574353338891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -996,19 +996,19 @@
         <v>104445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87290</v>
+        <v>86429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126260</v>
+        <v>125159</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1639451775209874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.137017198341413</v>
+        <v>0.1356650644669798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1981863324166797</v>
+        <v>0.1964588012121564</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>53517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40275</v>
+        <v>39349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73933</v>
+        <v>71508</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1475448249379601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1110366594608377</v>
+        <v>0.1084840844372528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2038288455286439</v>
+        <v>0.1971428025275067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1046,19 +1046,19 @@
         <v>36043</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27470</v>
+        <v>26632</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46549</v>
+        <v>47700</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1313744427940161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.100127056746695</v>
+        <v>0.09707141239801677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1696678435942837</v>
+        <v>0.1738621395829309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -1067,19 +1067,19 @@
         <v>89561</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>71576</v>
+        <v>72191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>109669</v>
+        <v>110526</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1405810777182288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1123502392715139</v>
+        <v>0.1133160156787385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1721444442306025</v>
+        <v>0.1734895940518059</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>42808</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30532</v>
+        <v>29824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62130</v>
+        <v>60018</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1180183296778087</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08417617953053821</v>
+        <v>0.0822222146487554</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1712888629004817</v>
+        <v>0.1654675739535219</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -1117,19 +1117,19 @@
         <v>26131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18523</v>
+        <v>18792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36447</v>
+        <v>35258</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09524522620487814</v>
+        <v>0.09524522620487813</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06751644615368327</v>
+        <v>0.06849527313215928</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1328449236886177</v>
+        <v>0.1285125485196928</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -1138,19 +1138,19 @@
         <v>68939</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>53713</v>
+        <v>53138</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>86122</v>
+        <v>88427</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1082111318897424</v>
+        <v>0.1082111318897425</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08431149541961934</v>
+        <v>0.08340973178239047</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1351833675671112</v>
+        <v>0.1388009656255861</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>166829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140881</v>
+        <v>140520</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193319</v>
+        <v>193094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.268881999428121</v>
+        <v>0.2688819994281211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2270615885601206</v>
+        <v>0.2264795312790104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3115763543754324</v>
+        <v>0.3112141562315223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -1263,19 +1263,19 @@
         <v>103343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87435</v>
+        <v>87079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120833</v>
+        <v>121325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2328627233411956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1970179608617706</v>
+        <v>0.1962162287712524</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2722737523514424</v>
+        <v>0.2733816202585527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>266</v>
@@ -1284,19 +1284,19 @@
         <v>270172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240982</v>
+        <v>242404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>303096</v>
+        <v>302710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2538618888927989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2264338498614458</v>
+        <v>0.2277706676095755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2847981583404746</v>
+        <v>0.2844355512205349</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>135279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113777</v>
+        <v>114935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161054</v>
+        <v>161047</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2180324593730444</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1833763034113365</v>
+        <v>0.1852431461275572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2595743033594075</v>
+        <v>0.2595630783010341</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>134</v>
@@ -1334,19 +1334,19 @@
         <v>86065</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71982</v>
+        <v>72932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100469</v>
+        <v>101177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1939304184041163</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1621967484949631</v>
+        <v>0.1643368219083848</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2263870316860435</v>
+        <v>0.2279825903693669</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>255</v>
@@ -1355,19 +1355,19 @@
         <v>221344</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>194373</v>
+        <v>196999</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251232</v>
+        <v>247999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2079818598383255</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1826387383202142</v>
+        <v>0.1851066721257488</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2360649613376806</v>
+        <v>0.2330274383507511</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>77131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60112</v>
+        <v>61103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98294</v>
+        <v>97392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1243135410969187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09688346127163942</v>
+        <v>0.09848152200943046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1584219611411093</v>
+        <v>0.1569686220398351</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -1405,19 +1405,19 @@
         <v>52676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41852</v>
+        <v>41995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65167</v>
+        <v>65841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.11869532565969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09430586024913773</v>
+        <v>0.09462845631350753</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1468419761000703</v>
+        <v>0.1483591705661085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -1426,19 +1426,19 @@
         <v>129807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109512</v>
+        <v>109429</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153390</v>
+        <v>152084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1219707339656821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1029005856429709</v>
+        <v>0.102823144099789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1441301082625815</v>
+        <v>0.1429025098402782</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>123182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101135</v>
+        <v>101325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149063</v>
+        <v>147460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1985353143332139</v>
+        <v>0.198535314333214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1630018680753457</v>
+        <v>0.163308276569939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.24024802746143</v>
+        <v>0.237664653578669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -1476,19 +1476,19 @@
         <v>78260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64038</v>
+        <v>64490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93155</v>
+        <v>94044</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1763439554508393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1442972252256955</v>
+        <v>0.145314387339937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.209906419620037</v>
+        <v>0.2119089785086209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -1497,19 +1497,19 @@
         <v>201442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>176085</v>
+        <v>174517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231777</v>
+        <v>227888</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1892814730695008</v>
+        <v>0.1892814730695007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1654550652119978</v>
+        <v>0.1639816500907187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2177850429526406</v>
+        <v>0.2141308379258251</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>91216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>72634</v>
+        <v>71138</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113230</v>
+        <v>114830</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1470153214606414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1170665265620096</v>
+        <v>0.1146553125260436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1824949978281423</v>
+        <v>0.1850733684773241</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -1547,19 +1547,19 @@
         <v>82078</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67644</v>
+        <v>68198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97038</v>
+        <v>98181</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1849473800923697</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1524213311422003</v>
+        <v>0.1536714057144138</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2186552876425972</v>
+        <v>0.2212311275511452</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>168</v>
@@ -1568,19 +1568,19 @@
         <v>173295</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>147471</v>
+        <v>147092</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>200712</v>
+        <v>200051</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1628330661622817</v>
+        <v>0.1628330661622816</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1385679102728476</v>
+        <v>0.1382119382423238</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1885955313088661</v>
+        <v>0.1879738138893974</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>26817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16907</v>
+        <v>17491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41076</v>
+        <v>41233</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04322136430806039</v>
+        <v>0.0432213643080604</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02724958075798724</v>
+        <v>0.02819027410041926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06620245380703992</v>
+        <v>0.06645633185451906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1618,19 +1618,19 @@
         <v>41370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30889</v>
+        <v>31434</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52709</v>
+        <v>53520</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09322019705178916</v>
+        <v>0.09322019705178913</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06960306770719028</v>
+        <v>0.07083105752869062</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1187704365597171</v>
+        <v>0.1205964273070507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -1639,19 +1639,19 @@
         <v>68187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53599</v>
+        <v>52365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84201</v>
+        <v>84731</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06407097807141117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05036368887328891</v>
+        <v>0.04920378530691184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07911824900646576</v>
+        <v>0.07961550071938094</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>164459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142156</v>
+        <v>142723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>186521</v>
+        <v>189807</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.394937914947724</v>
+        <v>0.3949379149477239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3413770263383618</v>
+        <v>0.3427404576622325</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4479182758325298</v>
+        <v>0.4558097755428205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -1764,19 +1764,19 @@
         <v>104721</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88199</v>
+        <v>89099</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119884</v>
+        <v>121777</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3133886058179893</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2639433090871803</v>
+        <v>0.2666385591751324</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3587647135569386</v>
+        <v>0.3644302709212795</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>257</v>
@@ -1785,19 +1785,19 @@
         <v>269181</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>240599</v>
+        <v>239167</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>296375</v>
+        <v>295684</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3586319991564213</v>
+        <v>0.3586319991564211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3205520985612347</v>
+        <v>0.3186451449012033</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3948633204945615</v>
+        <v>0.3939432951488687</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>68081</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53235</v>
+        <v>51413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87794</v>
+        <v>87321</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1634922290248023</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.127841365117802</v>
+        <v>0.1234646638285021</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2108325481876643</v>
+        <v>0.2096954435149097</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1835,19 +1835,19 @@
         <v>49708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39061</v>
+        <v>39261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62719</v>
+        <v>61793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1487550564530394</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1168939378929094</v>
+        <v>0.1174914739420802</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1876921399936042</v>
+        <v>0.1849220580377888</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -1856,19 +1856,19 @@
         <v>117789</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98791</v>
+        <v>97811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141077</v>
+        <v>139757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1569312102730538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1316204033930592</v>
+        <v>0.1303146469365837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1879577665518256</v>
+        <v>0.1862000001036619</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>29200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18996</v>
+        <v>19675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41370</v>
+        <v>41446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07012127113875256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04561728764062118</v>
+        <v>0.04724792907126996</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09934741444462519</v>
+        <v>0.09953078155826359</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1906,19 +1906,19 @@
         <v>36378</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27450</v>
+        <v>27319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48333</v>
+        <v>46673</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1088658994475895</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08214766605921456</v>
+        <v>0.08175394643413615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1446425159180767</v>
+        <v>0.1396730206904052</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -1927,19 +1927,19 @@
         <v>65578</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52555</v>
+        <v>51089</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83088</v>
+        <v>81590</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08737045727849214</v>
+        <v>0.08737045727849213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07001905466977412</v>
+        <v>0.06806593403059132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1106990603821641</v>
+        <v>0.1087033696169043</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>83617</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>67304</v>
+        <v>67628</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>103422</v>
+        <v>103643</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2008011862319489</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1616251036696627</v>
+        <v>0.1624049307885628</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2483619620776643</v>
+        <v>0.2488925612766948</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>68</v>
@@ -1977,19 +1977,19 @@
         <v>53503</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42313</v>
+        <v>42400</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65269</v>
+        <v>66499</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1601137756132339</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1266262139757072</v>
+        <v>0.1268859535979941</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1953229259520704</v>
+        <v>0.1990035416238506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -1998,19 +1998,19 @@
         <v>137121</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>115104</v>
+        <v>117895</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160616</v>
+        <v>162606</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1826870695158992</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1533542140779087</v>
+        <v>0.1570727701362862</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2139905662384204</v>
+        <v>0.2166414140396855</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>53263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38224</v>
+        <v>37641</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73027</v>
+        <v>72190</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1279083830275362</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09179195588656999</v>
+        <v>0.09039331324990664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1753685597091599</v>
+        <v>0.1733592990813427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -2048,19 +2048,19 @@
         <v>62259</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49566</v>
+        <v>49311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77234</v>
+        <v>75250</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1863171232013835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1483301061723334</v>
+        <v>0.147568211587253</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2311303759847992</v>
+        <v>0.2251943457155594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -2069,19 +2069,19 @@
         <v>115523</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96183</v>
+        <v>94819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137856</v>
+        <v>137479</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1539120711624559</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1281450959359925</v>
+        <v>0.1263284192637086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1836675395805445</v>
+        <v>0.1831652164136479</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>17797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10363</v>
+        <v>8905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29282</v>
+        <v>28492</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04273901562923623</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02488533451972709</v>
+        <v>0.02138579331949118</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07031806649817085</v>
+        <v>0.06842056634651032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>32</v>
@@ -2119,19 +2119,19 @@
         <v>27588</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19769</v>
+        <v>19456</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39171</v>
+        <v>38734</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08255953946676448</v>
+        <v>0.08255953946676446</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05915961450278116</v>
+        <v>0.05822380652862672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1172235989103557</v>
+        <v>0.1159161199391223</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -2140,19 +2140,19 @@
         <v>45385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33207</v>
+        <v>33684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>60166</v>
+        <v>60621</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06046719261367769</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04424234413639644</v>
+        <v>0.04487719389280653</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08015942741850843</v>
+        <v>0.08076654640361826</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>181665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>160274</v>
+        <v>159391</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>205438</v>
+        <v>205866</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3559197052015269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3140114534638678</v>
+        <v>0.3122799752871386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4024966681623454</v>
+        <v>0.4033353819709236</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>163</v>
@@ -2265,19 +2265,19 @@
         <v>119954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104059</v>
+        <v>105922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137971</v>
+        <v>139023</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2712488113913252</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.235305204923942</v>
+        <v>0.2395177624607694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3119892830866433</v>
+        <v>0.3143689928540848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>331</v>
@@ -2286,19 +2286,19 @@
         <v>301619</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>273151</v>
+        <v>273199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>333474</v>
+        <v>330577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3166141550462777</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2867315870223657</v>
+        <v>0.2867810359201909</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.350053566331414</v>
+        <v>0.3470118653132729</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>94019</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76149</v>
+        <v>75332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114510</v>
+        <v>113294</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1842031518547453</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1491914281063857</v>
+        <v>0.1475923366201517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2243491982911251</v>
+        <v>0.2219669184420661</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>126</v>
@@ -2336,19 +2336,19 @@
         <v>88836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75409</v>
+        <v>75674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106581</v>
+        <v>104984</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2008831715827752</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1705205776051484</v>
+        <v>0.1711205647182262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2410085667136181</v>
+        <v>0.2373971265407197</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>215</v>
@@ -2357,19 +2357,19 @@
         <v>182855</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>161620</v>
+        <v>159442</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209699</v>
+        <v>207426</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1919462772961781</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1696556296612536</v>
+        <v>0.1673685314482948</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2201250430039496</v>
+        <v>0.2177380781154</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>68099</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52378</v>
+        <v>50927</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>86390</v>
+        <v>85953</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1334204733749105</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1026190619133542</v>
+        <v>0.09977711453389758</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1692556087509415</v>
+        <v>0.1683996239705189</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -2407,19 +2407,19 @@
         <v>50482</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39170</v>
+        <v>38991</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>63022</v>
+        <v>64874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1141527035177507</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08857360724758497</v>
+        <v>0.08816877728223363</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.142509860906626</v>
+        <v>0.146697437241009</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>124</v>
@@ -2428,19 +2428,19 @@
         <v>118581</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>97046</v>
+        <v>97906</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>139779</v>
+        <v>138771</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1244760739429401</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1018708935860377</v>
+        <v>0.1027740363457744</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1467282119203436</v>
+        <v>0.1456701181814276</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>67775</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53940</v>
+        <v>51922</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>87850</v>
+        <v>83369</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1327858586412594</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1056805633506579</v>
+        <v>0.1017260418513282</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.172117594523591</v>
+        <v>0.1633384912201153</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -2478,19 +2478,19 @@
         <v>66146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>53767</v>
+        <v>54357</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80907</v>
+        <v>80557</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1495735253504493</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.121580835464482</v>
+        <v>0.122916884017292</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1829519458269498</v>
+        <v>0.1821602228776344</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>149</v>
@@ -2499,19 +2499,19 @@
         <v>133921</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>113896</v>
+        <v>114129</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>157320</v>
+        <v>155906</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.140578955491126</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1195586732618693</v>
+        <v>0.119803472875204</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.165141428131899</v>
+        <v>0.1636568727753165</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>66943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51324</v>
+        <v>52299</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>83902</v>
+        <v>84916</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.131155331167864</v>
+        <v>0.1311553311678639</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1005541388492839</v>
+        <v>0.1024649938169072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1643824028678434</v>
+        <v>0.1663679130377374</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>87</v>
@@ -2549,19 +2549,19 @@
         <v>70386</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57684</v>
+        <v>57808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>85762</v>
+        <v>85314</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1591611208857293</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1304392577296856</v>
+        <v>0.1307190961188409</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1939308669680973</v>
+        <v>0.19291745408838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>147</v>
@@ -2570,19 +2570,19 @@
         <v>137329</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116743</v>
+        <v>115998</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>157714</v>
+        <v>158388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.144156055771769</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1225474546330223</v>
+        <v>0.1217654883950945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1655552156856964</v>
+        <v>0.1662628376662824</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>31908</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21687</v>
+        <v>21507</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47383</v>
+        <v>46031</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06251547975969393</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0424901144995417</v>
+        <v>0.04213626323359942</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09283379470763976</v>
+        <v>0.09018439027626954</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>66</v>
@@ -2620,19 +2620,19 @@
         <v>46425</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36541</v>
+        <v>35825</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56201</v>
+        <v>58367</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1049806672719703</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08263016556429748</v>
+        <v>0.08100927661053328</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.127086369107338</v>
+        <v>0.1319837210599964</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -2641,19 +2641,19 @@
         <v>78334</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64375</v>
+        <v>63512</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>96821</v>
+        <v>95299</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08222848245170916</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06757578239634873</v>
+        <v>0.06667007206068544</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1016348527335614</v>
+        <v>0.1000372220523299</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>606450</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>561645</v>
+        <v>560380</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>653379</v>
+        <v>651553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3175130312041977</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2940550105996338</v>
+        <v>0.2933927593868713</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3420831110174232</v>
+        <v>0.341127000943671</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>531</v>
@@ -2766,19 +2766,19 @@
         <v>406937</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>376877</v>
+        <v>376499</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>437763</v>
+        <v>440114</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.272283029168378</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2521696954182829</v>
+        <v>0.2519170639736432</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2929089428843498</v>
+        <v>0.2944822706975972</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1045</v>
@@ -2787,19 +2787,19 @@
         <v>1013387</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>958538</v>
+        <v>957540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1068839</v>
+        <v>1070936</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2976577985134914</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.281547199346532</v>
+        <v>0.2812542085856528</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3139455832480293</v>
+        <v>0.3145615641957355</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>361726</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>322991</v>
+        <v>325721</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>400504</v>
+        <v>398347</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1893852772970958</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1691053561063905</v>
+        <v>0.1705346759454092</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2096879850839239</v>
+        <v>0.2085587413874085</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>414</v>
@@ -2837,19 +2837,19 @@
         <v>278638</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>252863</v>
+        <v>255329</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>304687</v>
+        <v>307659</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1864380775563579</v>
+        <v>0.186438077556358</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.169191384552918</v>
+        <v>0.1708415483093092</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2038675484792663</v>
+        <v>0.2058557184602079</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>744</v>
@@ -2858,19 +2858,19 @@
         <v>640364</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>595718</v>
+        <v>590296</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>688652</v>
+        <v>687968</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1880915047124296</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1749777551845835</v>
+        <v>0.1733850459447969</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2022748731286398</v>
+        <v>0.2020739459741042</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>222443</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>193075</v>
+        <v>191212</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>256967</v>
+        <v>253444</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1164620520037814</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1010864594702834</v>
+        <v>0.10011092524408</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1345374758095735</v>
+        <v>0.13269322781865</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>241</v>
@@ -2908,19 +2908,19 @@
         <v>174862</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>151437</v>
+        <v>153191</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>199088</v>
+        <v>195139</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1170007180167255</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1013272677873826</v>
+        <v>0.1025004326893412</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1332107028057213</v>
+        <v>0.130568596437246</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>449</v>
@@ -2929,19 +2929,19 @@
         <v>397304</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>358993</v>
+        <v>360336</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>434915</v>
+        <v>434794</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1166985175918464</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1054453721123104</v>
+        <v>0.1058399975924837</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1277458505605621</v>
+        <v>0.1277101039208378</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>335112</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>299692</v>
+        <v>299671</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>374700</v>
+        <v>374804</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1754511839738317</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1569068814647041</v>
+        <v>0.1568958129592926</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1961778785561098</v>
+        <v>0.1962324832212546</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>317</v>
@@ -2979,19 +2979,19 @@
         <v>241817</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>219342</v>
+        <v>216685</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>269275</v>
+        <v>266051</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1618008831320623</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1467627097215418</v>
+        <v>0.1449844979226646</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1801729251441855</v>
+        <v>0.1780158662120569</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>601</v>
@@ -3000,19 +3000,19 @@
         <v>576929</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>531075</v>
+        <v>534283</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>623529</v>
+        <v>625925</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1694589246921091</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1559905102448006</v>
+        <v>0.1569327762654091</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1831466291835624</v>
+        <v>0.1838502999895055</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>264940</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>229129</v>
+        <v>229372</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>301605</v>
+        <v>299716</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1387119278898258</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1199626380961683</v>
+        <v>0.1200898781242957</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1579083609496813</v>
+        <v>0.1569192377981117</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>310</v>
@@ -3050,19 +3050,19 @@
         <v>250767</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>223376</v>
+        <v>226172</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>276796</v>
+        <v>276227</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1677890413015104</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.149461944357455</v>
+        <v>0.1513326382602039</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1852052223680378</v>
+        <v>0.1848247958174711</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>522</v>
@@ -3071,19 +3071,19 @@
         <v>515707</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>470221</v>
+        <v>474038</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>562949</v>
+        <v>566790</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.151476306107316</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1381159484470898</v>
+        <v>0.1392372083270056</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1653526904040362</v>
+        <v>0.1664808896556</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>119330</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97293</v>
+        <v>96986</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>146720</v>
+        <v>144631</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06247652763126765</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05093885019654102</v>
+        <v>0.05077820536445696</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07681647078093132</v>
+        <v>0.07572323089175528</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>186</v>
@@ -3121,19 +3121,19 @@
         <v>141515</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>122674</v>
+        <v>120192</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>163506</v>
+        <v>161651</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09468825082496568</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08208161097477323</v>
+        <v>0.08042112924343876</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1094022383184644</v>
+        <v>0.1081613138223012</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>285</v>
@@ -3142,19 +3142,19 @@
         <v>260845</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>231410</v>
+        <v>230237</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>294803</v>
+        <v>290596</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07661694838280757</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06797099167367295</v>
+        <v>0.06762661123920403</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08659127513784222</v>
+        <v>0.08535554540614086</v>
       </c>
     </row>
     <row r="38">
